--- a/attendance-files/Pricing/Pricing Attendance - A.xlsx
+++ b/attendance-files/Pricing/Pricing Attendance - A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="196">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" ref="F7:F85" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>39</v>
@@ -1689,9 +1689,15 @@
       <c r="S7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
+      <c r="T7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W7" s="39"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="39"/>
@@ -1717,7 +1723,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>9</v>
@@ -1758,9 +1764,15 @@
       <c r="S8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
+      <c r="T8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W8" s="39"/>
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
@@ -1782,11 +1794,11 @@
       </c>
       <c r="E9" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>39</v>
@@ -1827,9 +1839,15 @@
       <c r="S9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
+      <c r="T9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W9" s="39"/>
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
@@ -1851,11 +1869,11 @@
       </c>
       <c r="E10" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>39</v>
@@ -1896,9 +1914,15 @@
       <c r="S10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
+      <c r="T10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W10" s="39"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="39"/>
@@ -1924,7 +1948,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>9</v>
@@ -1965,9 +1989,15 @@
       <c r="S11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
+      <c r="T11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W11" s="39"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -1989,11 +2019,11 @@
       </c>
       <c r="E12" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>39</v>
@@ -2034,9 +2064,15 @@
       <c r="S12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
+      <c r="T12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W12" s="39"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -2058,11 +2094,11 @@
       </c>
       <c r="E13" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>39</v>
@@ -2103,9 +2139,15 @@
       <c r="S13" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
+      <c r="T13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W13" s="39"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -2131,7 +2173,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>39</v>
@@ -2172,9 +2214,15 @@
       <c r="S14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
+      <c r="T14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -2196,11 +2244,11 @@
       </c>
       <c r="E15" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>39</v>
@@ -2241,9 +2289,15 @@
       <c r="S15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="T15" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -2269,7 +2323,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>9</v>
@@ -2310,9 +2364,15 @@
       <c r="S16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
+      <c r="T16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
       <c r="Y16" s="39"/>
@@ -2338,7 +2398,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>9</v>
@@ -2379,9 +2439,15 @@
       <c r="S17" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="T17" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
@@ -2407,7 +2473,7 @@
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>39</v>
@@ -2448,9 +2514,15 @@
       <c r="S18" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
+      <c r="T18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
       <c r="Y18" s="39"/>
@@ -2472,11 +2544,11 @@
       </c>
       <c r="E19" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>39</v>
@@ -2517,9 +2589,15 @@
       <c r="S19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
+      <c r="T19" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
@@ -2541,11 +2619,11 @@
       </c>
       <c r="E20" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>39</v>
@@ -2586,9 +2664,15 @@
       <c r="S20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
+      <c r="T20" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W20" s="39"/>
       <c r="X20" s="39"/>
       <c r="Y20" s="39"/>
@@ -2610,11 +2694,11 @@
       </c>
       <c r="E21" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>9</v>
@@ -2655,9 +2739,15 @@
       <c r="S21" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
+      <c r="T21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
@@ -2683,7 +2773,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>39</v>
@@ -2724,9 +2814,15 @@
       <c r="S22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
+      <c r="T22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W22" s="39"/>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
@@ -2752,7 +2848,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>39</v>
@@ -2793,9 +2889,15 @@
       <c r="S23" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
+      <c r="T23" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
       <c r="Y23" s="39"/>
@@ -2821,7 +2923,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>9</v>
@@ -2862,9 +2964,15 @@
       <c r="S24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
+      <c r="T24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
       <c r="Y24" s="39"/>
@@ -2890,7 +2998,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>9</v>
@@ -2931,9 +3039,15 @@
       <c r="S25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
+      <c r="T25" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V25" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
       <c r="Y25" s="39"/>
@@ -2959,7 +3073,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>39</v>
@@ -3000,9 +3114,15 @@
       <c r="S26" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
+      <c r="T26" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
@@ -3024,11 +3144,11 @@
       </c>
       <c r="E27" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>39</v>
@@ -3069,9 +3189,15 @@
       <c r="S27" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
+      <c r="T27" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V27" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
       <c r="Y27" s="39"/>
@@ -3093,11 +3219,11 @@
       </c>
       <c r="E28" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>39</v>
@@ -3138,9 +3264,15 @@
       <c r="S28" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
+      <c r="T28" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U28" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
@@ -3162,11 +3294,11 @@
       </c>
       <c r="E29" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>39</v>
@@ -3207,9 +3339,15 @@
       <c r="S29" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
+      <c r="T29" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U29" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
       <c r="Y29" s="39"/>
@@ -3231,11 +3369,11 @@
       </c>
       <c r="E30" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>39</v>
@@ -3276,9 +3414,15 @@
       <c r="S30" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
+      <c r="T30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V30" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
       <c r="Y30" s="39"/>
@@ -3300,11 +3444,11 @@
       </c>
       <c r="E31" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>39</v>
@@ -3345,9 +3489,15 @@
       <c r="S31" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
+      <c r="T31" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V31" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
       <c r="Y31" s="39"/>
@@ -3369,11 +3519,11 @@
       </c>
       <c r="E32" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>39</v>
@@ -3414,9 +3564,15 @@
       <c r="S32" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
+      <c r="T32" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U32" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
       <c r="Y32" s="39"/>
@@ -3442,7 +3598,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>39</v>
@@ -3483,9 +3639,15 @@
       <c r="S33" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
+      <c r="T33" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U33" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
       <c r="Y33" s="39"/>
@@ -3511,7 +3673,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>39</v>
@@ -3552,9 +3714,15 @@
       <c r="S34" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
+      <c r="T34" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U34" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
       <c r="Y34" s="39"/>
@@ -3576,11 +3744,11 @@
       </c>
       <c r="E35" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>39</v>
@@ -3621,9 +3789,15 @@
       <c r="S35" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="T35" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
       <c r="Y35" s="39"/>
@@ -3649,7 +3823,7 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>39</v>
@@ -3690,9 +3864,15 @@
       <c r="S36" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
+      <c r="T36" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U36" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V36" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="39"/>
@@ -3718,7 +3898,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>9</v>
@@ -3759,9 +3939,15 @@
       <c r="S37" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
+      <c r="T37" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U37" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V37" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W37" s="39"/>
       <c r="X37" s="39"/>
       <c r="Y37" s="39"/>
@@ -3783,11 +3969,11 @@
       </c>
       <c r="E38" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>39</v>
@@ -3828,9 +4014,15 @@
       <c r="S38" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
+      <c r="T38" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W38" s="39"/>
       <c r="X38" s="39"/>
       <c r="Y38" s="39"/>
@@ -3856,7 +4048,7 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>39</v>
@@ -3897,9 +4089,15 @@
       <c r="S39" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
+      <c r="T39" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U39" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V39" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W39" s="39"/>
       <c r="X39" s="39"/>
       <c r="Y39" s="39"/>
@@ -3925,7 +4123,7 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>39</v>
@@ -3966,9 +4164,15 @@
       <c r="S40" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
+      <c r="T40" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U40" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V40" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W40" s="39"/>
       <c r="X40" s="39"/>
       <c r="Y40" s="39"/>
@@ -3994,7 +4198,7 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>39</v>
@@ -4035,9 +4239,15 @@
       <c r="S41" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
+      <c r="T41" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U41" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V41" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W41" s="39"/>
       <c r="X41" s="39"/>
       <c r="Y41" s="39"/>
@@ -4059,11 +4269,11 @@
       </c>
       <c r="E42" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>39</v>
@@ -4104,9 +4314,15 @@
       <c r="S42" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
+      <c r="T42" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U42" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V42" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W42" s="39"/>
       <c r="X42" s="39"/>
       <c r="Y42" s="39"/>
@@ -4128,11 +4344,11 @@
       </c>
       <c r="E43" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>39</v>
@@ -4173,9 +4389,15 @@
       <c r="S43" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
+      <c r="T43" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U43" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V43" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W43" s="39"/>
       <c r="X43" s="39"/>
       <c r="Y43" s="39"/>
@@ -4197,11 +4419,11 @@
       </c>
       <c r="E44" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>9</v>
@@ -4242,9 +4464,15 @@
       <c r="S44" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
+      <c r="T44" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U44" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V44" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
       <c r="Y44" s="39"/>
@@ -4266,11 +4494,11 @@
       </c>
       <c r="E45" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="40"/>
       <c r="H45" s="37" t="s">
@@ -4309,9 +4537,15 @@
       <c r="S45" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
+      <c r="T45" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U45" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V45" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W45" s="39"/>
       <c r="X45" s="39"/>
       <c r="Y45" s="39"/>
@@ -4337,7 +4571,7 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>9</v>
@@ -4378,9 +4612,15 @@
       <c r="S46" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
+      <c r="T46" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U46" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V46" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
       <c r="Y46" s="39"/>
@@ -4406,7 +4646,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>39</v>
@@ -4447,9 +4687,15 @@
       <c r="S47" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
+      <c r="T47" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U47" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V47" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W47" s="39"/>
       <c r="X47" s="39"/>
       <c r="Y47" s="39"/>
@@ -4471,11 +4717,11 @@
       </c>
       <c r="E48" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>39</v>
@@ -4516,9 +4762,15 @@
       <c r="S48" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
+      <c r="T48" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U48" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V48" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
       <c r="Y48" s="39"/>
@@ -4544,7 +4796,7 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>39</v>
@@ -4585,9 +4837,15 @@
       <c r="S49" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
+      <c r="T49" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U49" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V49" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
       <c r="Y49" s="39"/>
@@ -4613,7 +4871,7 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>39</v>
@@ -4654,9 +4912,15 @@
       <c r="S50" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
+      <c r="T50" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U50" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V50" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W50" s="39"/>
       <c r="X50" s="39"/>
       <c r="Y50" s="39"/>
@@ -4682,7 +4946,7 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>39</v>
@@ -4723,9 +4987,15 @@
       <c r="S51" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
+      <c r="T51" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U51" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V51" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W51" s="39"/>
       <c r="X51" s="39"/>
       <c r="Y51" s="39"/>
@@ -4747,11 +5017,11 @@
       </c>
       <c r="E52" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>39</v>
@@ -4792,9 +5062,15 @@
       <c r="S52" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
+      <c r="T52" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U52" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V52" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W52" s="39"/>
       <c r="X52" s="39"/>
       <c r="Y52" s="39"/>
@@ -4816,11 +5092,11 @@
       </c>
       <c r="E53" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>39</v>
@@ -4861,9 +5137,15 @@
       <c r="S53" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
+      <c r="T53" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U53" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V53" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W53" s="39"/>
       <c r="X53" s="39"/>
       <c r="Y53" s="39"/>
@@ -4885,11 +5167,11 @@
       </c>
       <c r="E54" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>39</v>
@@ -4930,9 +5212,15 @@
       <c r="S54" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
+      <c r="T54" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U54" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V54" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W54" s="39"/>
       <c r="X54" s="39"/>
       <c r="Y54" s="39"/>
@@ -4958,7 +5246,7 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>39</v>
@@ -4999,9 +5287,15 @@
       <c r="S55" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
+      <c r="T55" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U55" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V55" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W55" s="39"/>
       <c r="X55" s="39"/>
       <c r="Y55" s="39"/>
@@ -5023,11 +5317,11 @@
       </c>
       <c r="E56" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>39</v>
@@ -5068,9 +5362,15 @@
       <c r="S56" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
+      <c r="T56" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U56" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V56" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W56" s="39"/>
       <c r="X56" s="39"/>
       <c r="Y56" s="39"/>
@@ -5092,11 +5392,11 @@
       </c>
       <c r="E57" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>39</v>
@@ -5137,9 +5437,15 @@
       <c r="S57" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
+      <c r="T57" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U57" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V57" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W57" s="39"/>
       <c r="X57" s="39"/>
       <c r="Y57" s="39"/>
@@ -5161,11 +5467,11 @@
       </c>
       <c r="E58" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>39</v>
@@ -5206,9 +5512,15 @@
       <c r="S58" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
+      <c r="T58" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U58" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V58" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W58" s="39"/>
       <c r="X58" s="39"/>
       <c r="Y58" s="39"/>
@@ -5234,7 +5546,7 @@
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>39</v>
@@ -5275,9 +5587,15 @@
       <c r="S59" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
+      <c r="T59" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U59" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V59" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W59" s="39"/>
       <c r="X59" s="39"/>
       <c r="Y59" s="39"/>
@@ -5303,7 +5621,7 @@
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>39</v>
@@ -5344,9 +5662,15 @@
       <c r="S60" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
+      <c r="T60" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U60" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V60" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W60" s="39"/>
       <c r="X60" s="39"/>
       <c r="Y60" s="39"/>
@@ -5368,11 +5692,11 @@
       </c>
       <c r="E61" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>9</v>
@@ -5413,9 +5737,15 @@
       <c r="S61" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
+      <c r="T61" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U61" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V61" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W61" s="39"/>
       <c r="X61" s="39"/>
       <c r="Y61" s="39"/>
@@ -5441,7 +5771,7 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>39</v>
@@ -5482,9 +5812,15 @@
       <c r="S62" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
+      <c r="T62" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U62" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V62" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W62" s="39"/>
       <c r="X62" s="39"/>
       <c r="Y62" s="39"/>
@@ -5506,11 +5842,11 @@
       </c>
       <c r="E63" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>39</v>
@@ -5551,9 +5887,15 @@
       <c r="S63" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
+      <c r="T63" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U63" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V63" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W63" s="39"/>
       <c r="X63" s="39"/>
       <c r="Y63" s="39"/>
@@ -5575,11 +5917,11 @@
       </c>
       <c r="E64" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>9</v>
@@ -5620,9 +5962,15 @@
       <c r="S64" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
+      <c r="T64" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U64" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V64" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W64" s="39"/>
       <c r="X64" s="39"/>
       <c r="Y64" s="39"/>
@@ -5644,11 +5992,11 @@
       </c>
       <c r="E65" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>39</v>
@@ -5689,9 +6037,15 @@
       <c r="S65" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
+      <c r="T65" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U65" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V65" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W65" s="39"/>
       <c r="X65" s="39"/>
       <c r="Y65" s="39"/>
@@ -5713,11 +6067,11 @@
       </c>
       <c r="E66" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>39</v>
@@ -5758,9 +6112,15 @@
       <c r="S66" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
+      <c r="T66" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U66" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V66" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W66" s="39"/>
       <c r="X66" s="39"/>
       <c r="Y66" s="39"/>
@@ -5782,11 +6142,11 @@
       </c>
       <c r="E67" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>39</v>
@@ -5827,9 +6187,15 @@
       <c r="S67" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
+      <c r="T67" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U67" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V67" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W67" s="39"/>
       <c r="X67" s="39"/>
       <c r="Y67" s="39"/>
@@ -5851,11 +6217,11 @@
       </c>
       <c r="E68" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>39</v>
@@ -5896,9 +6262,15 @@
       <c r="S68" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
+      <c r="T68" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U68" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V68" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W68" s="39"/>
       <c r="X68" s="39"/>
       <c r="Y68" s="39"/>
@@ -5920,11 +6292,11 @@
       </c>
       <c r="E69" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>9</v>
@@ -5965,9 +6337,15 @@
       <c r="S69" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
+      <c r="T69" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U69" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V69" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W69" s="39"/>
       <c r="X69" s="39"/>
       <c r="Y69" s="39"/>
@@ -5993,7 +6371,7 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>39</v>
@@ -6034,9 +6412,15 @@
       <c r="S70" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
+      <c r="T70" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U70" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V70" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W70" s="39"/>
       <c r="X70" s="39"/>
       <c r="Y70" s="39"/>
@@ -6062,7 +6446,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>39</v>
@@ -6103,9 +6487,15 @@
       <c r="S71" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
+      <c r="T71" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U71" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V71" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W71" s="39"/>
       <c r="X71" s="39"/>
       <c r="Y71" s="39"/>
@@ -6127,11 +6517,11 @@
       </c>
       <c r="E72" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>9</v>
@@ -6172,9 +6562,15 @@
       <c r="S72" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
+      <c r="T72" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U72" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V72" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W72" s="39"/>
       <c r="X72" s="39"/>
       <c r="Y72" s="39"/>
@@ -6200,7 +6596,7 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>39</v>
@@ -6241,9 +6637,15 @@
       <c r="S73" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
+      <c r="T73" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U73" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V73" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W73" s="39"/>
       <c r="X73" s="39"/>
       <c r="Y73" s="39"/>
@@ -6265,11 +6667,11 @@
       </c>
       <c r="E74" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>39</v>
@@ -6310,9 +6712,15 @@
       <c r="S74" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
+      <c r="T74" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U74" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V74" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W74" s="39"/>
       <c r="X74" s="39"/>
       <c r="Y74" s="39"/>
@@ -6338,7 +6746,7 @@
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>39</v>
@@ -6379,9 +6787,15 @@
       <c r="S75" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
+      <c r="T75" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U75" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V75" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W75" s="39"/>
       <c r="X75" s="39"/>
       <c r="Y75" s="39"/>
@@ -6403,11 +6817,11 @@
       </c>
       <c r="E76" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>39</v>
@@ -6448,9 +6862,15 @@
       <c r="S76" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
+      <c r="T76" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U76" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V76" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W76" s="39"/>
       <c r="X76" s="39"/>
       <c r="Y76" s="39"/>
@@ -6476,7 +6896,7 @@
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>39</v>
@@ -6517,9 +6937,15 @@
       <c r="S77" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
+      <c r="T77" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U77" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V77" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W77" s="39"/>
       <c r="X77" s="39"/>
       <c r="Y77" s="39"/>
@@ -6545,7 +6971,7 @@
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>39</v>
@@ -6586,9 +7012,15 @@
       <c r="S78" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
+      <c r="T78" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U78" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V78" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W78" s="39"/>
       <c r="X78" s="39"/>
       <c r="Y78" s="39"/>
@@ -6614,7 +7046,7 @@
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>39</v>
@@ -6655,9 +7087,15 @@
       <c r="S79" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
+      <c r="T79" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U79" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V79" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W79" s="39"/>
       <c r="X79" s="39"/>
       <c r="Y79" s="39"/>
@@ -6679,11 +7117,11 @@
       </c>
       <c r="E80" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>39</v>
@@ -6724,9 +7162,15 @@
       <c r="S80" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
+      <c r="T80" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U80" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V80" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W80" s="39"/>
       <c r="X80" s="39"/>
       <c r="Y80" s="39"/>
@@ -6752,7 +7196,7 @@
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G81" s="36" t="s">
         <v>39</v>
@@ -6793,9 +7237,15 @@
       <c r="S81" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
+      <c r="T81" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U81" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V81" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W81" s="39"/>
       <c r="X81" s="39"/>
       <c r="Y81" s="39"/>
@@ -6817,11 +7267,11 @@
       </c>
       <c r="E82" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>39</v>
@@ -6862,9 +7312,15 @@
       <c r="S82" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
-      <c r="V82" s="39"/>
+      <c r="T82" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U82" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V82" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="W82" s="39"/>
       <c r="X82" s="39"/>
       <c r="Y82" s="39"/>
@@ -6886,11 +7342,11 @@
       </c>
       <c r="E83" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G83" s="36" t="s">
         <v>39</v>
@@ -6931,9 +7387,15 @@
       <c r="S83" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39"/>
-      <c r="V83" s="39"/>
+      <c r="T83" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U83" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V83" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W83" s="39"/>
       <c r="X83" s="39"/>
       <c r="Y83" s="39"/>
@@ -6959,7 +7421,7 @@
       </c>
       <c r="F84" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G84" s="36" t="s">
         <v>39</v>
@@ -7000,9 +7462,15 @@
       <c r="S84" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
+      <c r="T84" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U84" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V84" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W84" s="39"/>
       <c r="X84" s="39"/>
       <c r="Y84" s="39"/>
@@ -7024,11 +7492,11 @@
       </c>
       <c r="E85" s="35">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F85" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G85" s="42" t="s">
         <v>9</v>
@@ -7069,9 +7537,15 @@
       <c r="S85" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="T85" s="39"/>
-      <c r="U85" s="39"/>
-      <c r="V85" s="39"/>
+      <c r="T85" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="U85" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V85" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="W85" s="39"/>
       <c r="X85" s="39"/>
       <c r="Y85" s="39"/>

--- a/attendance-files/Pricing/Pricing Attendance - A.xlsx
+++ b/attendance-files/Pricing/Pricing Attendance - A.xlsx
@@ -4344,11 +4344,11 @@
       </c>
       <c r="E43" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>39</v>
@@ -4390,7 +4390,7 @@
         <v>39</v>
       </c>
       <c r="T43" s="38" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="U43" s="38" t="s">
         <v>39</v>

--- a/attendance-files/Pricing/Pricing Attendance - A.xlsx
+++ b/attendance-files/Pricing/Pricing Attendance - A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="196">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -995,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1109,12 +1109,6 @@
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1126,6 +1120,9 @@
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1648,7 +1645,7 @@
       </c>
       <c r="F7" s="35">
         <f t="shared" ref="F7:F85" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>39</v>
@@ -1698,10 +1695,18 @@
       <c r="V7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
+      <c r="W7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA7" s="19"/>
     </row>
     <row r="8">
@@ -1719,11 +1724,11 @@
       </c>
       <c r="E8" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>9</v>
@@ -1773,10 +1778,18 @@
       <c r="V8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
+      <c r="W8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA8" s="19"/>
     </row>
     <row r="9">
@@ -1794,11 +1807,11 @@
       </c>
       <c r="E9" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>39</v>
@@ -1848,10 +1861,18 @@
       <c r="V9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
+      <c r="W9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA9" s="19"/>
     </row>
     <row r="10">
@@ -1869,11 +1890,11 @@
       </c>
       <c r="E10" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>39</v>
@@ -1923,10 +1944,18 @@
       <c r="V10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
+      <c r="W10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA10" s="19"/>
     </row>
     <row r="11">
@@ -1944,11 +1973,11 @@
       </c>
       <c r="E11" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>9</v>
@@ -1998,10 +2027,18 @@
       <c r="V11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
+      <c r="W11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA11" s="19"/>
     </row>
     <row r="12">
@@ -2023,7 +2060,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>39</v>
@@ -2073,10 +2110,18 @@
       <c r="V12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
+      <c r="W12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA12" s="19"/>
     </row>
     <row r="13">
@@ -2094,11 +2139,11 @@
       </c>
       <c r="E13" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>39</v>
@@ -2148,10 +2193,18 @@
       <c r="V13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
+      <c r="W13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z13" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA13" s="19"/>
     </row>
     <row r="14">
@@ -2169,11 +2222,11 @@
       </c>
       <c r="E14" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>39</v>
@@ -2223,10 +2276,18 @@
       <c r="V14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
+      <c r="W14" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA14" s="19"/>
     </row>
     <row r="15">
@@ -2244,11 +2305,11 @@
       </c>
       <c r="E15" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>39</v>
@@ -2298,10 +2359,18 @@
       <c r="V15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
+      <c r="W15" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA15" s="19"/>
     </row>
     <row r="16">
@@ -2323,7 +2392,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>9</v>
@@ -2373,10 +2442,18 @@
       <c r="V16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
+      <c r="W16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA16" s="19"/>
     </row>
     <row r="17">
@@ -2394,11 +2471,11 @@
       </c>
       <c r="E17" s="35">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>9</v>
@@ -2425,7 +2502,7 @@
         <v>39</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="P17" s="36" t="s">
         <v>9</v>
@@ -2448,10 +2525,18 @@
       <c r="V17" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
+      <c r="W17" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA17" s="19"/>
     </row>
     <row r="18">
@@ -2469,11 +2554,11 @@
       </c>
       <c r="E18" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>39</v>
@@ -2523,10 +2608,18 @@
       <c r="V18" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
+      <c r="W18" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA18" s="19"/>
     </row>
     <row r="19">
@@ -2544,11 +2637,11 @@
       </c>
       <c r="E19" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>39</v>
@@ -2598,10 +2691,18 @@
       <c r="V19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
+      <c r="W19" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA19" s="19"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2619,11 +2720,11 @@
       </c>
       <c r="E20" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>39</v>
@@ -2673,10 +2774,18 @@
       <c r="V20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
+      <c r="W20" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y20" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA20" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2698,7 +2807,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>9</v>
@@ -2748,10 +2857,18 @@
       <c r="V21" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
+      <c r="W21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2769,11 +2886,11 @@
       </c>
       <c r="E22" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>39</v>
@@ -2823,10 +2940,18 @@
       <c r="V22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
+      <c r="W22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z22" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2844,11 +2969,11 @@
       </c>
       <c r="E23" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>39</v>
@@ -2898,10 +3023,18 @@
       <c r="V23" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
+      <c r="W23" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y23" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z23" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2923,7 +3056,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>9</v>
@@ -2973,10 +3106,18 @@
       <c r="V24" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
+      <c r="W24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z24" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2998,7 +3139,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>9</v>
@@ -3048,10 +3189,18 @@
       <c r="V25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
+      <c r="W25" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3069,11 +3218,11 @@
       </c>
       <c r="E26" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>39</v>
@@ -3123,10 +3272,18 @@
       <c r="V26" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
+      <c r="W26" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3144,11 +3301,11 @@
       </c>
       <c r="E27" s="35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>39</v>
@@ -3198,10 +3355,18 @@
       <c r="V27" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
+      <c r="W27" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X27" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3223,7 +3388,7 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>39</v>
@@ -3271,12 +3436,20 @@
         <v>39</v>
       </c>
       <c r="V28" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
+        <v>39</v>
+      </c>
+      <c r="W28" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X28" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y28" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3294,11 +3467,11 @@
       </c>
       <c r="E29" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>39</v>
@@ -3348,10 +3521,18 @@
       <c r="V29" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
+      <c r="W29" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X29" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z29" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3373,7 +3554,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>39</v>
@@ -3423,10 +3604,18 @@
       <c r="V30" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
+      <c r="W30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3444,11 +3633,11 @@
       </c>
       <c r="E31" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>39</v>
@@ -3498,10 +3687,18 @@
       <c r="V31" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
+      <c r="W31" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X31" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y31" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z31" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3523,7 +3720,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>39</v>
@@ -3573,10 +3770,18 @@
       <c r="V32" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
+      <c r="W32" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y32" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z32" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3598,7 +3803,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>39</v>
@@ -3648,10 +3853,18 @@
       <c r="V33" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
+      <c r="W33" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X33" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y33" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z33" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3673,7 +3886,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>39</v>
@@ -3723,10 +3936,18 @@
       <c r="V34" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
+      <c r="W34" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y34" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3744,11 +3965,11 @@
       </c>
       <c r="E35" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>39</v>
@@ -3798,10 +4019,18 @@
       <c r="V35" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
+      <c r="W35" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X35" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3819,11 +4048,11 @@
       </c>
       <c r="E36" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>39</v>
@@ -3873,10 +4102,18 @@
       <c r="V36" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
+      <c r="W36" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X36" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y36" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z36" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3894,11 +4131,11 @@
       </c>
       <c r="E37" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>9</v>
@@ -3948,10 +4185,18 @@
       <c r="V37" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
+      <c r="W37" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X37" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y37" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z37" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3969,11 +4214,11 @@
       </c>
       <c r="E38" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>39</v>
@@ -4023,10 +4268,18 @@
       <c r="V38" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
+      <c r="W38" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X38" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y38" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z38" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4044,11 +4297,11 @@
       </c>
       <c r="E39" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>39</v>
@@ -4098,10 +4351,18 @@
       <c r="V39" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
+      <c r="W39" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X39" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y39" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z39" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4119,11 +4380,11 @@
       </c>
       <c r="E40" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>39</v>
@@ -4173,10 +4434,18 @@
       <c r="V40" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
+      <c r="W40" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X40" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y40" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z40" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4194,11 +4463,11 @@
       </c>
       <c r="E41" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>39</v>
@@ -4248,10 +4517,18 @@
       <c r="V41" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="39"/>
+      <c r="W41" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X41" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y41" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z41" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4269,11 +4546,11 @@
       </c>
       <c r="E42" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>39</v>
@@ -4323,10 +4600,18 @@
       <c r="V42" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="39"/>
+      <c r="W42" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X42" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y42" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z42" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4344,11 +4629,11 @@
       </c>
       <c r="E43" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>39</v>
@@ -4398,10 +4683,18 @@
       <c r="V43" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
-      <c r="Z43" s="39"/>
+      <c r="W43" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X43" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y43" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z43" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4419,11 +4712,11 @@
       </c>
       <c r="E44" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>9</v>
@@ -4473,10 +4766,18 @@
       <c r="V44" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="39"/>
+      <c r="W44" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X44" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y44" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z44" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4494,13 +4795,15 @@
       </c>
       <c r="E45" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G45" s="40"/>
+        <v>17</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>39</v>
+      </c>
       <c r="H45" s="37" t="s">
         <v>39</v>
       </c>
@@ -4546,10 +4849,18 @@
       <c r="V45" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
-      <c r="Z45" s="39"/>
+      <c r="W45" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X45" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y45" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z45" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4567,11 +4878,11 @@
       </c>
       <c r="E46" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>9</v>
@@ -4621,10 +4932,18 @@
       <c r="V46" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
-      <c r="Z46" s="39"/>
+      <c r="W46" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X46" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y46" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z46" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4646,7 +4965,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>39</v>
@@ -4696,10 +5015,18 @@
       <c r="V47" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
+      <c r="W47" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X47" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y47" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z47" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4721,7 +5048,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>39</v>
@@ -4771,10 +5098,18 @@
       <c r="V48" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="39"/>
+      <c r="W48" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X48" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y48" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z48" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -4792,11 +5127,11 @@
       </c>
       <c r="E49" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>39</v>
@@ -4846,10 +5181,18 @@
       <c r="V49" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
+      <c r="W49" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X49" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y49" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z49" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -4867,11 +5210,11 @@
       </c>
       <c r="E50" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>39</v>
@@ -4921,10 +5264,18 @@
       <c r="V50" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
+      <c r="W50" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X50" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y50" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z50" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -4942,11 +5293,11 @@
       </c>
       <c r="E51" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>39</v>
@@ -4996,10 +5347,18 @@
       <c r="V51" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
+      <c r="W51" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X51" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y51" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z51" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5021,7 +5380,7 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>39</v>
@@ -5071,10 +5430,18 @@
       <c r="V52" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
+      <c r="W52" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X52" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y52" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z52" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5092,11 +5459,11 @@
       </c>
       <c r="E53" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>39</v>
@@ -5146,10 +5513,18 @@
       <c r="V53" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
+      <c r="W53" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X53" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y53" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z53" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5167,11 +5542,11 @@
       </c>
       <c r="E54" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>39</v>
@@ -5221,10 +5596,18 @@
       <c r="V54" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
+      <c r="W54" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X54" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y54" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z54" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5242,11 +5625,11 @@
       </c>
       <c r="E55" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>39</v>
@@ -5296,10 +5679,18 @@
       <c r="V55" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
+      <c r="W55" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X55" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y55" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z55" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5317,11 +5708,11 @@
       </c>
       <c r="E56" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>39</v>
@@ -5371,10 +5762,18 @@
       <c r="V56" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
+      <c r="W56" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X56" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y56" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z56" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5392,11 +5791,11 @@
       </c>
       <c r="E57" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>39</v>
@@ -5446,10 +5845,18 @@
       <c r="V57" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
+      <c r="W57" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X57" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y57" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z57" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5467,11 +5874,11 @@
       </c>
       <c r="E58" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>39</v>
@@ -5521,10 +5928,18 @@
       <c r="V58" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
+      <c r="W58" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X58" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y58" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z58" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5542,11 +5957,11 @@
       </c>
       <c r="E59" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>39</v>
@@ -5596,10 +6011,18 @@
       <c r="V59" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
+      <c r="W59" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X59" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y59" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z59" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5617,11 +6040,11 @@
       </c>
       <c r="E60" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>39</v>
@@ -5671,10 +6094,18 @@
       <c r="V60" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
+      <c r="W60" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X60" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y60" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z60" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -5696,7 +6127,7 @@
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>9</v>
@@ -5746,10 +6177,18 @@
       <c r="V61" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
+      <c r="W61" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X61" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y61" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z61" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -5767,11 +6206,11 @@
       </c>
       <c r="E62" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>39</v>
@@ -5821,10 +6260,18 @@
       <c r="V62" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
+      <c r="W62" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X62" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y62" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z62" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -5842,11 +6289,11 @@
       </c>
       <c r="E63" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>39</v>
@@ -5896,10 +6343,18 @@
       <c r="V63" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
+      <c r="W63" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X63" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y63" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z63" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -5921,7 +6376,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>9</v>
@@ -5971,10 +6426,18 @@
       <c r="V64" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
+      <c r="W64" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X64" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y64" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z64" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -5992,11 +6455,11 @@
       </c>
       <c r="E65" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>39</v>
@@ -6046,10 +6509,18 @@
       <c r="V65" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
-      <c r="Z65" s="39"/>
+      <c r="W65" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X65" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y65" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z65" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -6067,11 +6538,11 @@
       </c>
       <c r="E66" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>39</v>
@@ -6121,10 +6592,18 @@
       <c r="V66" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
+      <c r="W66" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X66" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y66" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z66" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6142,11 +6621,11 @@
       </c>
       <c r="E67" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>39</v>
@@ -6196,10 +6675,18 @@
       <c r="V67" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
+      <c r="W67" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X67" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y67" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z67" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6217,11 +6704,11 @@
       </c>
       <c r="E68" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>39</v>
@@ -6271,10 +6758,18 @@
       <c r="V68" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
+      <c r="W68" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X68" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y68" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z68" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -6292,11 +6787,11 @@
       </c>
       <c r="E69" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>9</v>
@@ -6346,10 +6841,18 @@
       <c r="V69" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="39"/>
+      <c r="W69" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X69" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y69" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z69" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6371,7 +6874,7 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>39</v>
@@ -6421,10 +6924,18 @@
       <c r="V70" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="39"/>
+      <c r="W70" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X70" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y70" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z70" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6442,11 +6953,11 @@
       </c>
       <c r="E71" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>39</v>
@@ -6496,10 +7007,18 @@
       <c r="V71" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W71" s="39"/>
-      <c r="X71" s="39"/>
-      <c r="Y71" s="39"/>
-      <c r="Z71" s="39"/>
+      <c r="W71" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X71" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y71" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z71" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -6517,11 +7036,11 @@
       </c>
       <c r="E72" s="35">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>9</v>
@@ -6551,7 +7070,7 @@
         <v>39</v>
       </c>
       <c r="P72" s="36" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="Q72" s="38" t="s">
         <v>39</v>
@@ -6566,15 +7085,23 @@
         <v>39</v>
       </c>
       <c r="U72" s="38" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="V72" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
-      <c r="Z72" s="39"/>
+      <c r="W72" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X72" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y72" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z72" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -6592,11 +7119,11 @@
       </c>
       <c r="E73" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>39</v>
@@ -6646,10 +7173,18 @@
       <c r="V73" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
-      <c r="Z73" s="39"/>
+      <c r="W73" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X73" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y73" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z73" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -6667,11 +7202,11 @@
       </c>
       <c r="E74" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>39</v>
@@ -6721,10 +7256,18 @@
       <c r="V74" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
-      <c r="Z74" s="39"/>
+      <c r="W74" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X74" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y74" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z74" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -6746,7 +7289,7 @@
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>39</v>
@@ -6796,10 +7339,18 @@
       <c r="V75" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
-      <c r="Z75" s="39"/>
+      <c r="W75" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X75" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y75" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z75" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -6817,11 +7368,11 @@
       </c>
       <c r="E76" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>39</v>
@@ -6871,10 +7422,18 @@
       <c r="V76" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="39"/>
+      <c r="W76" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X76" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y76" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z76" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -6892,11 +7451,11 @@
       </c>
       <c r="E77" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>39</v>
@@ -6946,10 +7505,18 @@
       <c r="V77" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
-      <c r="Z77" s="39"/>
+      <c r="W77" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X77" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y77" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z77" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -6967,11 +7534,11 @@
       </c>
       <c r="E78" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>39</v>
@@ -7021,10 +7588,18 @@
       <c r="V78" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
-      <c r="Z78" s="39"/>
+      <c r="W78" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X78" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y78" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z78" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -7046,7 +7621,7 @@
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>39</v>
@@ -7096,10 +7671,18 @@
       <c r="V79" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="39"/>
+      <c r="W79" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X79" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y79" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z79" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -7121,7 +7704,7 @@
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>39</v>
@@ -7171,10 +7754,18 @@
       <c r="V80" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
-      <c r="Z80" s="39"/>
+      <c r="W80" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X80" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y80" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z80" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -7192,11 +7783,11 @@
       </c>
       <c r="E81" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G81" s="36" t="s">
         <v>39</v>
@@ -7246,10 +7837,18 @@
       <c r="V81" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39"/>
-      <c r="Y81" s="39"/>
-      <c r="Z81" s="39"/>
+      <c r="W81" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X81" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y81" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z81" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -7271,7 +7870,7 @@
       </c>
       <c r="F82" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>39</v>
@@ -7321,10 +7920,18 @@
       <c r="V82" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="W82" s="39"/>
-      <c r="X82" s="39"/>
-      <c r="Y82" s="39"/>
-      <c r="Z82" s="39"/>
+      <c r="W82" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X82" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y82" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z82" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -7346,7 +7953,7 @@
       </c>
       <c r="F83" s="35">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G83" s="36" t="s">
         <v>39</v>
@@ -7396,10 +8003,18 @@
       <c r="V83" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39"/>
-      <c r="Y83" s="39"/>
-      <c r="Z83" s="39"/>
+      <c r="W83" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X83" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y83" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z83" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="AA83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -7417,11 +8032,11 @@
       </c>
       <c r="E84" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F84" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G84" s="36" t="s">
         <v>39</v>
@@ -7471,20 +8086,28 @@
       <c r="V84" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W84" s="39"/>
-      <c r="X84" s="39"/>
-      <c r="Y84" s="39"/>
-      <c r="Z84" s="39"/>
+      <c r="W84" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X84" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y84" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z84" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="31">
         <v>79.0</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="39" t="s">
         <v>195</v>
       </c>
       <c r="D85" s="34" t="s">
@@ -7492,40 +8115,40 @@
       </c>
       <c r="E85" s="35">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F85" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G85" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="40" t="s">
         <v>39</v>
       </c>
       <c r="I85" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J85" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="K85" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="L85" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="M85" s="42" t="s">
+      <c r="J85" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M85" s="40" t="s">
         <v>9</v>
       </c>
       <c r="N85" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="O85" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="P85" s="42" t="s">
+      <c r="O85" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P85" s="40" t="s">
         <v>9</v>
       </c>
       <c r="Q85" s="38" t="s">
@@ -7546,194 +8169,202 @@
       <c r="V85" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="W85" s="39"/>
-      <c r="X85" s="39"/>
-      <c r="Y85" s="39"/>
-      <c r="Z85" s="39"/>
+      <c r="W85" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="X85" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y85" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z85" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="AA85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="31">
         <v>80.0</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
       <c r="D86" s="34"/>
       <c r="E86" s="35"/>
       <c r="F86" s="35"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="39"/>
-      <c r="Y86" s="39"/>
-      <c r="Z86" s="39"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="43"/>
+      <c r="U86" s="43"/>
+      <c r="V86" s="43"/>
+      <c r="W86" s="43"/>
+      <c r="X86" s="43"/>
+      <c r="Y86" s="43"/>
+      <c r="Z86" s="43"/>
       <c r="AA86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="31">
         <v>81.0</v>
       </c>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="34"/>
       <c r="E87" s="35"/>
       <c r="F87" s="35"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="39"/>
-      <c r="Y87" s="39"/>
-      <c r="Z87" s="39"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="43"/>
+      <c r="U87" s="43"/>
+      <c r="V87" s="43"/>
+      <c r="W87" s="43"/>
+      <c r="X87" s="43"/>
+      <c r="Y87" s="43"/>
+      <c r="Z87" s="43"/>
       <c r="AA87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="31">
         <v>82.0</v>
       </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="34"/>
       <c r="E88" s="35"/>
       <c r="F88" s="35"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="39"/>
-      <c r="Y88" s="39"/>
-      <c r="Z88" s="39"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="43"/>
+      <c r="U88" s="43"/>
+      <c r="V88" s="43"/>
+      <c r="W88" s="43"/>
+      <c r="X88" s="43"/>
+      <c r="Y88" s="43"/>
+      <c r="Z88" s="43"/>
       <c r="AA88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="31">
         <v>83.0</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="34"/>
       <c r="E89" s="35"/>
       <c r="F89" s="35"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="39"/>
-      <c r="V89" s="39"/>
-      <c r="W89" s="39"/>
-      <c r="X89" s="39"/>
-      <c r="Y89" s="39"/>
-      <c r="Z89" s="39"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="43"/>
+      <c r="U89" s="43"/>
+      <c r="V89" s="43"/>
+      <c r="W89" s="43"/>
+      <c r="X89" s="43"/>
+      <c r="Y89" s="43"/>
+      <c r="Z89" s="43"/>
       <c r="AA89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="31">
         <v>84.0</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="34"/>
       <c r="E90" s="35"/>
       <c r="F90" s="35"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="44"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="44"/>
-      <c r="N90" s="44"/>
-      <c r="O90" s="44"/>
-      <c r="P90" s="44"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="39"/>
-      <c r="Y90" s="39"/>
-      <c r="Z90" s="39"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="43"/>
+      <c r="R90" s="43"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="43"/>
+      <c r="U90" s="43"/>
+      <c r="V90" s="43"/>
+      <c r="W90" s="43"/>
+      <c r="X90" s="43"/>
+      <c r="Y90" s="43"/>
+      <c r="Z90" s="43"/>
       <c r="AA90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="46"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
-      <c r="Q91" s="45"/>
-      <c r="R91" s="45"/>
-      <c r="S91" s="45"/>
-      <c r="T91" s="45"/>
-      <c r="U91" s="45"/>
-      <c r="V91" s="45"/>
-      <c r="W91" s="45"/>
-      <c r="X91" s="45"/>
-      <c r="Y91" s="45"/>
-      <c r="Z91" s="45"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="45"/>
+      <c r="N91" s="45"/>
+      <c r="O91" s="45"/>
+      <c r="P91" s="45"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="44"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="44"/>
       <c r="AA91" s="6"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
